--- a/数据整理/stocks/港股/00956-新天绿色能源.xlsx
+++ b/数据整理/stocks/港股/00956-新天绿色能源.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.91</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.91</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.90</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.32</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.90</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.32</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00956-新天绿色能源.xlsx
+++ b/数据整理/stocks/港股/00956-新天绿色能源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>166.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3024</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>41.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>41.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00956-新天绿色能源.xlsx
+++ b/数据整理/stocks/港股/00956-新天绿色能源.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00956-新天绿色能源.xlsx
+++ b/数据整理/stocks/港股/00956-新天绿色能源.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,14 +1015,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>166.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9698</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>6.35</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="3">
@@ -1010,14 +1105,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="4">
@@ -1026,13 +1121,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00956-新天绿色能源.xlsx
+++ b/数据整理/stocks/港股/00956-新天绿色能源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1058,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,17 +1070,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1089,14 +1110,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.97</v>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>258.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.5967</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1105,14 +1148,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.35</v>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1121,14 +1186,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1137,13 +1224,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00956-新天绿色能源.xlsx
+++ b/数据整理/stocks/港股/00956-新天绿色能源.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1381,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,17 +1393,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1412,14 +1433,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.09</v>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1428,14 +1471,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.97</v>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1444,14 +1509,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.35</v>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1460,14 +1547,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1476,13 +1585,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00956-新天绿色能源.xlsx
+++ b/数据整理/stocks/港股/00956-新天绿色能源.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007178</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0201</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.57</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007216</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>008404</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>华泰紫金泰盈混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>89.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0628</t>
+          <t>0.2065</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,188 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>008405</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>华泰紫金泰盈混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>89.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.1774</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,7 +893,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -781,22 +933,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>166.29</t>
+          <t>258.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.88</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.3024</t>
+          <t>8.5967</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -809,36 +961,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006923</t>
+          <t>008404</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
+          <t>华泰紫金泰盈混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.58</t>
+          <t>79.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0238</t>
+          <t>0.1716</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -847,36 +999,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012315</t>
+          <t>008405</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+          <t>华泰紫金泰盈混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>41.95</t>
+          <t>79.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.1484</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -885,36 +1037,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006924</t>
+          <t>011694</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.58</t>
+          <t>77.49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.1040</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -923,36 +1075,112 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012316</t>
+          <t>011695</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>41.95</t>
+          <t>77.49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0332</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1060,7 +1288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,7 +1309,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1121,22 +1349,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>258.16</t>
+          <t>166.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>88.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8.5967</t>
+          <t>6.3024</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1149,36 +1377,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008404</t>
+          <t>006923</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰紫金泰盈混合A</t>
+          <t>前海开源沪港深非周期性行业股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.73</t>
+          <t>89.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1716</t>
+          <t>0.0238</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1187,36 +1415,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008405</t>
+          <t>012315</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰紫金泰盈混合C</t>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.73</t>
+          <t>41.95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1484</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1225,36 +1453,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011694</t>
+          <t>006924</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+          <t>前海开源沪港深非周期性行业股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>77.49</t>
+          <t>89.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1040</t>
+          <t>0.0054</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1263,112 +1491,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011695</t>
+          <t>012316</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>77.49</t>
+          <t>41.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0332</t>
+          <t>0.0043</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006923</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0282</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006924</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1382,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1403,7 +1555,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1433,36 +1585,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008404</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰紫金泰盈混合A</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.24</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2065</t>
+          <t>0.0628</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1471,188 +1623,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008405</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰紫金泰盈混合C</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.24</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1774</t>
+          <t>0.0043</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011694</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1081</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011695</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0356</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006923</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.61</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0268</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006924</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.61</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1666,128 +1666,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.57</v>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.09</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.97</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.02</v>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00956-新天绿色能源.xlsx
+++ b/数据整理/stocks/港股/00956-新天绿色能源.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.57</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>9.09</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>5.97</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>6.35</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07000000000000001</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -583,6 +600,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -866,7 +1015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1188,7 +1337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1282,7 +1431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1528,7 +1677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1660,7 +1809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00956-新天绿色能源.xlsx
+++ b/数据整理/stocks/港股/00956-新天绿色能源.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.57</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>9.09</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>5.97</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>6.35</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07000000000000001</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -600,6 +617,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>168.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4029</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -731,7 +994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1015,7 +1278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1337,7 +1600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1431,7 +1694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1677,7 +1940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1809,7 +2072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
